--- a/需求分析/需求跟踪矩阵/需求跟踪矩阵v0.0.3.xlsx
+++ b/需求分析/需求跟踪矩阵/需求跟踪矩阵v0.0.3.xlsx
@@ -790,12 +790,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,7 +805,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -837,35 +836,13 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,16 +855,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,7 +871,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,6 +915,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -963,6 +947,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -972,15 +964,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,19 +999,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,37 +1047,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,13 +1089,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,97 +1179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,17 +1223,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1276,15 +1256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1299,6 +1270,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1307,10 +1298,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,138 +1310,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1468,19 +1462,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1488,9 +1479,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1813,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A64" sqref="$A64:$XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1827,37 +1815,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="23.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="23.25" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" ht="23.25" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1868,13 +1856,13 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1885,13 +1873,13 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1902,13 +1890,13 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1919,13 +1907,13 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1936,13 +1924,13 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1953,13 +1941,13 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1970,13 +1958,13 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1987,13 +1975,13 @@
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2004,13 +1992,13 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2021,13 +2009,13 @@
       <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2038,13 +2026,13 @@
       <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2055,13 +2043,13 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2072,13 +2060,13 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2089,13 +2077,13 @@
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2106,13 +2094,13 @@
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2123,44 +2111,44 @@
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -2180,7 +2168,7 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2197,7 +2185,7 @@
       <c r="D23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2265,7 +2253,7 @@
       <c r="D27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2296,10 +2284,10 @@
       <c r="C29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2310,13 +2298,13 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2327,13 +2315,13 @@
       <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2344,13 +2332,13 @@
       <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2361,13 +2349,13 @@
       <c r="B33" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2378,13 +2366,13 @@
       <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2395,13 +2383,13 @@
       <c r="B35" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2412,13 +2400,13 @@
       <c r="B36" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2429,13 +2417,13 @@
       <c r="B37" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2446,13 +2434,13 @@
       <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2463,13 +2451,13 @@
       <c r="B39" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D39" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2480,13 +2468,13 @@
       <c r="B40" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2497,13 +2485,13 @@
       <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2514,13 +2502,13 @@
       <c r="B42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2531,13 +2519,13 @@
       <c r="B43" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2548,13 +2536,13 @@
       <c r="B44" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2565,13 +2553,13 @@
       <c r="B45" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2582,13 +2570,13 @@
       <c r="B46" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2599,13 +2587,13 @@
       <c r="B47" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2616,13 +2604,13 @@
       <c r="B48" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D48" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2633,13 +2621,13 @@
       <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2650,27 +2638,27 @@
       <c r="B50" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D50" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -2678,33 +2666,33 @@
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -2718,13 +2706,13 @@
       <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2735,13 +2723,13 @@
       <c r="B55" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2752,13 +2740,13 @@
       <c r="B56" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D56" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2769,13 +2757,13 @@
       <c r="B57" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D57" t="s">
         <v>112</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2786,13 +2774,13 @@
       <c r="B58" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2803,13 +2791,13 @@
       <c r="B59" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D59" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2820,13 +2808,13 @@
       <c r="B60" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2837,13 +2825,13 @@
       <c r="B61" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D61" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2854,13 +2842,13 @@
       <c r="B62" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D62" t="s">
         <v>118</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2871,27 +2859,27 @@
       <c r="B63" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A64" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E64" s="10" t="s">
@@ -2899,155 +2887,155 @@
       </c>
     </row>
     <row r="65" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" ht="18.75" spans="1:5">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="6" t="s">
+    <row r="66" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="67" ht="18.75" spans="1:5">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
+    <row r="67" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" ht="18.75" spans="1:5">
-      <c r="A68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="68" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" ht="18.75" spans="1:5">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
+    <row r="69" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="70" ht="18.75" spans="1:5">
-      <c r="A70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    <row r="70" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" ht="18.75" spans="1:5">
-      <c r="A71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="6" t="s">
+    <row r="71" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" ht="18.75" spans="1:5">
-      <c r="A72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="6" t="s">
+    <row r="72" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" ht="18.75" spans="1:5">
-      <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="6" t="s">
+    <row r="73" s="2" customFormat="1" ht="18.75" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3058,13 +3046,13 @@
       <c r="B74" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3075,13 +3063,13 @@
       <c r="B75" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3092,13 +3080,13 @@
       <c r="B76" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D76" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3109,13 +3097,13 @@
       <c r="B77" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3126,13 +3114,13 @@
       <c r="B78" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3143,13 +3131,13 @@
       <c r="B79" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3160,13 +3148,13 @@
       <c r="B80" t="s">
         <v>163</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D80" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3183,7 +3171,7 @@
       <c r="D81" t="s">
         <v>158</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3194,13 +3182,13 @@
       <c r="B82" t="s">
         <v>167</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D82" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3211,13 +3199,13 @@
       <c r="B83" t="s">
         <v>169</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D83" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3228,13 +3216,13 @@
       <c r="B84" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3248,10 +3236,10 @@
       <c r="C85" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3265,10 +3253,10 @@
       <c r="C86" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3282,27 +3270,27 @@
       <c r="C87" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A88" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="A88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="13" t="s">
+      <c r="D88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>10</v>
       </c>
     </row>
